--- a/config_7.20/game_enter_btn_config.xlsx
+++ b/config_7.20/game_enter_btn_config.xlsx
@@ -443,7 +443,7 @@
     <t>101;11;93#</t>
   </si>
   <si>
-    <t>100#120#</t>
+    <t>132#120#</t>
   </si>
   <si>
     <t>all</t>
@@ -1345,9 +1345,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
@@ -1405,21 +1405,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -1427,7 +1412,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1440,8 +1425,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1462,22 +1448,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -1486,14 +1456,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -1509,9 +1471,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1525,6 +1486,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -1533,17 +1502,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1588,7 +1588,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1600,7 +1600,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1612,7 +1612,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1624,19 +1648,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1648,7 +1678,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1660,7 +1714,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1672,85 +1744,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1800,20 +1800,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1835,26 +1832,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1878,7 +1858,27 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1890,10 +1890,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1902,133 +1902,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3532,7 +3532,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="2"/>
@@ -3661,7 +3661,7 @@
   <dimension ref="A1:F144"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B99" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B108" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>

--- a/config_7.20/game_enter_btn_config.xlsx
+++ b/config_7.20/game_enter_btn_config.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="820" firstSheet="22" activeTab="25"/>
+    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="820" firstSheet="22" activeTab="28"/>
   </bookViews>
   <sheets>
     <sheet name="mini_game_hall|小游戏大厅" sheetId="15" r:id="rId1"/>
@@ -1280,7 +1280,7 @@
     <t>节日扩展活动（非新玩家）</t>
   </si>
   <si>
-    <t>"act_ty_gifts","gift_sxlb","enter",</t>
+    <t>"act_ty_gifts","gift_khlb","enter",</t>
   </si>
   <si>
     <t>欢乐礼包</t>
@@ -1397,8 +1397,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1419,32 +1442,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1456,8 +1464,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1503,16 +1512,15 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1520,14 +1528,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1588,7 +1588,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1600,31 +1612,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1636,13 +1636,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1654,13 +1654,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1678,19 +1678,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1702,13 +1702,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1720,19 +1738,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1744,19 +1750,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1800,17 +1800,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1839,6 +1835,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1854,11 +1859,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1871,17 +1882,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1890,10 +1890,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1902,34 +1902,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1941,94 +1938,97 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3531,7 +3531,7 @@
   <sheetPr/>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -3660,12 +3660,12 @@
   <sheetPr/>
   <dimension ref="A1:F144"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B108" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F133" sqref="F133"/>
+      <selection pane="bottomRight" activeCell="B133" sqref="B133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
